--- a/Code/Results/Cases/Case_1_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_1_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -450,73 +456,79 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_1_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_19/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>11.59367740717635</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4.268907574037909</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>9.414072176002202</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>24.16011835501315</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>33.59521954186382</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10.95382677567453</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>18.61044086852752</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.04746602161664</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.347902831681961</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>10.95066429685153</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>4.256423141521504</v>
+      </c>
+      <c r="E3">
+        <v>9.470652795164314</v>
+      </c>
+      <c r="F3">
+        <v>23.41961613196151</v>
+      </c>
+      <c r="G3">
+        <v>32.44084734543407</v>
+      </c>
+      <c r="H3">
+        <v>10.87065322796341</v>
+      </c>
+      <c r="I3">
+        <v>18.77256230391743</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>14.18664412836318</v>
+      </c>
+      <c r="L3">
+        <v>7.030006638731731</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>10.54077454288919</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>4.248700172280051</v>
+      </c>
+      <c r="E4">
+        <v>9.507702497155234</v>
+      </c>
+      <c r="F4">
+        <v>22.97717702165472</v>
+      </c>
+      <c r="G4">
+        <v>31.74953312840823</v>
+      </c>
+      <c r="H4">
+        <v>10.82806641388477</v>
+      </c>
+      <c r="I4">
+        <v>18.8849310336497</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>13.6319270001172</v>
+      </c>
+      <c r="L4">
+        <v>6.831680030344085</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>10.37011417489458</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4.245540209465029</v>
+      </c>
+      <c r="E5">
+        <v>9.523373742396455</v>
+      </c>
+      <c r="F5">
+        <v>22.80012913475054</v>
+      </c>
+      <c r="G5">
+        <v>31.4725075074245</v>
+      </c>
+      <c r="H5">
+        <v>10.81277889510225</v>
+      </c>
+      <c r="I5">
+        <v>18.93381311875413</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>13.39934228404203</v>
+      </c>
+      <c r="L5">
+        <v>6.750183581439588</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>10.3415625917712</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>4.245014778641478</v>
+      </c>
+      <c r="E6">
+        <v>9.526010357366387</v>
+      </c>
+      <c r="F6">
+        <v>22.77093179629661</v>
+      </c>
+      <c r="G6">
+        <v>31.42679964634464</v>
+      </c>
+      <c r="H6">
+        <v>10.81036327287752</v>
+      </c>
+      <c r="I6">
+        <v>18.94211286338208</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>13.36032901966741</v>
+      </c>
+      <c r="L6">
+        <v>6.736613846675167</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>10.5384873998559</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>4.248657605412884</v>
+      </c>
+      <c r="E7">
+        <v>9.507911533460645</v>
+      </c>
+      <c r="F7">
+        <v>22.97477590502089</v>
+      </c>
+      <c r="G7">
+        <v>31.74577767712161</v>
+      </c>
+      <c r="H7">
+        <v>10.82785196112265</v>
+      </c>
+      <c r="I7">
+        <v>18.88557793102986</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>13.62881665424447</v>
+      </c>
+      <c r="L7">
+        <v>6.830583521952706</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>11.37518369668401</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>4.264615826379909</v>
+      </c>
+      <c r="E8">
+        <v>9.433097245049728</v>
+      </c>
+      <c r="F8">
+        <v>23.90235809571989</v>
+      </c>
+      <c r="G8">
+        <v>33.19374020479662</v>
+      </c>
+      <c r="H8">
+        <v>10.92334924255677</v>
+      </c>
+      <c r="I8">
+        <v>18.6635952104982</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>14.75610771131093</v>
+      </c>
+      <c r="L8">
+        <v>7.239005995677624</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>12.89076629277308</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>4.295388613534197</v>
+      </c>
+      <c r="E9">
+        <v>9.305082870071756</v>
+      </c>
+      <c r="F9">
+        <v>25.81105390263504</v>
+      </c>
+      <c r="G9">
+        <v>36.15959758492365</v>
+      </c>
+      <c r="H9">
+        <v>11.18073792671331</v>
+      </c>
+      <c r="I9">
+        <v>18.33649223279964</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>16.75808627425862</v>
+      </c>
+      <c r="L9">
+        <v>8.090470627760924</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>13.92253480262608</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>4.317604736617771</v>
+      </c>
+      <c r="E10">
+        <v>9.223021908578508</v>
+      </c>
+      <c r="F10">
+        <v>27.25919192174344</v>
+      </c>
+      <c r="G10">
+        <v>38.40128726552852</v>
+      </c>
+      <c r="H10">
+        <v>11.41627915137955</v>
+      </c>
+      <c r="I10">
+        <v>18.1716597435951</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>18.10174891073704</v>
+      </c>
+      <c r="L10">
+        <v>8.808485689823065</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>14.3735019683065</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>4.327613947093849</v>
+      </c>
+      <c r="E11">
+        <v>9.188449871362103</v>
+      </c>
+      <c r="F11">
+        <v>27.92644987021343</v>
+      </c>
+      <c r="G11">
+        <v>39.43240842637203</v>
+      </c>
+      <c r="H11">
+        <v>11.53426688430502</v>
+      </c>
+      <c r="I11">
+        <v>18.11533246313763</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>18.68571618532127</v>
+      </c>
+      <c r="L11">
+        <v>9.120127215012864</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>14.54159658587737</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>4.331389442106365</v>
+      </c>
+      <c r="E12">
+        <v>9.175770231562113</v>
+      </c>
+      <c r="F12">
+        <v>28.18025297964076</v>
+      </c>
+      <c r="G12">
+        <v>39.82437026101825</v>
+      </c>
+      <c r="H12">
+        <v>11.58056384825684</v>
+      </c>
+      <c r="I12">
+        <v>18.09688846307608</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>18.90296991115568</v>
+      </c>
+      <c r="L12">
+        <v>9.23602319273329</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>14.50551379891681</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>4.330576989568153</v>
+      </c>
+      <c r="E13">
+        <v>9.178482425154749</v>
+      </c>
+      <c r="F13">
+        <v>28.125542992935</v>
+      </c>
+      <c r="G13">
+        <v>39.73988921053376</v>
+      </c>
+      <c r="H13">
+        <v>11.57052008941849</v>
+      </c>
+      <c r="I13">
+        <v>18.10072898779664</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>18.85635232793705</v>
+      </c>
+      <c r="L13">
+        <v>9.2111563589432</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>14.38738498936262</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>4.327924859386982</v>
+      </c>
+      <c r="E14">
+        <v>9.187398356033464</v>
+      </c>
+      <c r="F14">
+        <v>27.947308250416</v>
+      </c>
+      <c r="G14">
+        <v>39.46462591684438</v>
+      </c>
+      <c r="H14">
+        <v>11.53804300777331</v>
+      </c>
+      <c r="I14">
+        <v>18.11375601772431</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>18.70366731138421</v>
+      </c>
+      <c r="L14">
+        <v>9.129704214013607</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>14.31467839504816</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>4.326298408247499</v>
+      </c>
+      <c r="E15">
+        <v>9.192913774392158</v>
+      </c>
+      <c r="F15">
+        <v>27.8382788091894</v>
+      </c>
+      <c r="G15">
+        <v>39.29621123908768</v>
+      </c>
+      <c r="H15">
+        <v>11.51836225915622</v>
+      </c>
+      <c r="I15">
+        <v>18.12211752524896</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>18.60963916047551</v>
+      </c>
+      <c r="L15">
+        <v>9.079538101472387</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>13.89268983458537</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>4.316948583368188</v>
+      </c>
+      <c r="E16">
+        <v>9.225338044445095</v>
+      </c>
+      <c r="F16">
+        <v>27.21574721105154</v>
+      </c>
+      <c r="G16">
+        <v>38.33411698598404</v>
+      </c>
+      <c r="H16">
+        <v>11.40879152850231</v>
+      </c>
+      <c r="I16">
+        <v>18.17573335817386</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>18.06303961000078</v>
+      </c>
+      <c r="L16">
+        <v>8.787820867578718</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>13.62907502361343</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>4.311187264034085</v>
+      </c>
+      <c r="E17">
+        <v>9.245946026747712</v>
+      </c>
+      <c r="F17">
+        <v>26.83594314303303</v>
+      </c>
+      <c r="G17">
+        <v>37.74670140185606</v>
+      </c>
+      <c r="H17">
+        <v>11.34439161423574</v>
+      </c>
+      <c r="I17">
+        <v>18.21354385066745</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>17.72075788150012</v>
+      </c>
+      <c r="L17">
+        <v>8.605049901116303</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>13.47572064607163</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>4.307864410205651</v>
+      </c>
+      <c r="E18">
+        <v>9.258057741987262</v>
+      </c>
+      <c r="F18">
+        <v>26.61829317092893</v>
+      </c>
+      <c r="G18">
+        <v>37.40991027081218</v>
+      </c>
+      <c r="H18">
+        <v>11.30836722348802</v>
+      </c>
+      <c r="I18">
+        <v>18.23703451091236</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>17.52131638645983</v>
+      </c>
+      <c r="L18">
+        <v>8.498511625749238</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>13.42350160676699</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>4.306737815623415</v>
+      </c>
+      <c r="E19">
+        <v>9.262202527916546</v>
+      </c>
+      <c r="F19">
+        <v>26.54474194564142</v>
+      </c>
+      <c r="G19">
+        <v>37.29606815480481</v>
+      </c>
+      <c r="H19">
+        <v>11.29634280608555</v>
+      </c>
+      <c r="I19">
+        <v>18.24528142692598</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>17.45334649904731</v>
+      </c>
+      <c r="L19">
+        <v>8.462195738104446</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>13.65731661829726</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>4.311801514329675</v>
+      </c>
+      <c r="E20">
+        <v>9.243725407427913</v>
+      </c>
+      <c r="F20">
+        <v>26.87629157476973</v>
+      </c>
+      <c r="G20">
+        <v>37.80912270714988</v>
+      </c>
+      <c r="H20">
+        <v>11.35114143862912</v>
+      </c>
+      <c r="I20">
+        <v>18.20933702577579</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>17.75746010268476</v>
+      </c>
+      <c r="L20">
+        <v>8.624652176736124</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>14.42215511052631</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>4.328704260767956</v>
+      </c>
+      <c r="E21">
+        <v>9.184768215000853</v>
+      </c>
+      <c r="F21">
+        <v>27.99963012959153</v>
+      </c>
+      <c r="G21">
+        <v>39.54543756549305</v>
+      </c>
+      <c r="H21">
+        <v>11.54753794449898</v>
+      </c>
+      <c r="I21">
+        <v>18.1098496589214</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>18.74861958271773</v>
+      </c>
+      <c r="L21">
+        <v>9.153685776247611</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>14.90641468451088</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>4.339664842205136</v>
+      </c>
+      <c r="E22">
+        <v>9.14864666461307</v>
+      </c>
+      <c r="F22">
+        <v>28.74034424164893</v>
+      </c>
+      <c r="G22">
+        <v>40.68893035492754</v>
+      </c>
+      <c r="H22">
+        <v>11.68535031202425</v>
+      </c>
+      <c r="I22">
+        <v>18.06175346743451</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>19.37379913916244</v>
+      </c>
+      <c r="L22">
+        <v>9.48712773563515</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>14.64939078828225</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>4.333823086188445</v>
+      </c>
+      <c r="E23">
+        <v>9.167699211454822</v>
+      </c>
+      <c r="F23">
+        <v>28.34443525223721</v>
+      </c>
+      <c r="G23">
+        <v>40.07786062541634</v>
+      </c>
+      <c r="H23">
+        <v>11.61091255641803</v>
+      </c>
+      <c r="I23">
+        <v>18.08580432236164</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>19.04218078595421</v>
+      </c>
+      <c r="L23">
+        <v>9.31027605251143</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>13.6445541932791</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>4.311523844705781</v>
+      </c>
+      <c r="E24">
+        <v>9.24472852853839</v>
+      </c>
+      <c r="F24">
+        <v>26.8580478470424</v>
+      </c>
+      <c r="G24">
+        <v>37.7808991524898</v>
+      </c>
+      <c r="H24">
+        <v>11.34808673277209</v>
+      </c>
+      <c r="I24">
+        <v>18.21123348663777</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>17.74087531406252</v>
+      </c>
+      <c r="L24">
+        <v>8.615794540952242</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>12.49481832965827</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>4.287127913608312</v>
+      </c>
+      <c r="E25">
+        <v>9.337655966505967</v>
+      </c>
+      <c r="F25">
+        <v>25.28607227407752</v>
+      </c>
+      <c r="G25">
+        <v>35.34532680208078</v>
+      </c>
+      <c r="H25">
+        <v>11.10321071225276</v>
+      </c>
+      <c r="I25">
+        <v>18.4124539465637</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>16.23889503478804</v>
+      </c>
+      <c r="L25">
+        <v>7.812526493083285</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_19/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.59367740717635</v>
+        <v>13.071287250291</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.268907574037909</v>
+        <v>5.443016395741304</v>
       </c>
       <c r="E2">
-        <v>9.414072176002202</v>
+        <v>14.54715690855897</v>
       </c>
       <c r="F2">
-        <v>24.16011835501315</v>
+        <v>28.41928462559851</v>
       </c>
       <c r="G2">
-        <v>33.59521954186382</v>
+        <v>36.1555759582659</v>
       </c>
       <c r="H2">
-        <v>10.95382677567453</v>
+        <v>15.91587805671281</v>
       </c>
       <c r="I2">
-        <v>18.61044086852752</v>
+        <v>27.47373069310889</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.04746602161664</v>
+        <v>9.518937294812984</v>
       </c>
       <c r="L2">
-        <v>7.347902831681961</v>
+        <v>9.292463822702416</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.95066429685153</v>
+        <v>12.94786705058702</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.256423141521504</v>
+        <v>5.434187551302804</v>
       </c>
       <c r="E3">
-        <v>9.470652795164314</v>
+        <v>14.57490374897035</v>
       </c>
       <c r="F3">
-        <v>23.41961613196151</v>
+        <v>28.35426764396928</v>
       </c>
       <c r="G3">
-        <v>32.44084734543407</v>
+        <v>36.00876702175115</v>
       </c>
       <c r="H3">
-        <v>10.87065322796341</v>
+        <v>15.94575746166695</v>
       </c>
       <c r="I3">
-        <v>18.77256230391743</v>
+        <v>27.57031085720966</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.18664412836318</v>
+        <v>9.078988428046284</v>
       </c>
       <c r="L3">
-        <v>7.030006638731731</v>
+        <v>9.25177194800785</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.54077454288919</v>
+        <v>12.87407191082984</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.248700172280051</v>
+        <v>5.428691303457657</v>
       </c>
       <c r="E4">
-        <v>9.507702497155234</v>
+        <v>14.59303288138494</v>
       </c>
       <c r="F4">
-        <v>22.97717702165472</v>
+        <v>28.3225659056101</v>
       </c>
       <c r="G4">
-        <v>31.74953312840823</v>
+        <v>35.93068568302515</v>
       </c>
       <c r="H4">
-        <v>10.82806641388477</v>
+        <v>15.96728406028783</v>
       </c>
       <c r="I4">
-        <v>18.8849310336497</v>
+        <v>27.63443764371311</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.6319270001172</v>
+        <v>8.795583783142865</v>
       </c>
       <c r="L4">
-        <v>6.831680030344085</v>
+        <v>9.228602459191478</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.37011417489458</v>
+        <v>12.84452983770865</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.245540209465029</v>
+        <v>5.426433035499248</v>
       </c>
       <c r="E5">
-        <v>9.523373742396455</v>
+        <v>14.60069595910006</v>
       </c>
       <c r="F5">
-        <v>22.80012913475054</v>
+        <v>28.31172107630866</v>
       </c>
       <c r="G5">
-        <v>31.4725075074245</v>
+        <v>35.90192092005614</v>
       </c>
       <c r="H5">
-        <v>10.81277889510225</v>
+        <v>15.97685447914951</v>
       </c>
       <c r="I5">
-        <v>18.93381311875413</v>
+        <v>27.66178190969124</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.39934228404203</v>
+        <v>8.676833787356346</v>
       </c>
       <c r="L5">
-        <v>6.750183581439588</v>
+        <v>9.219624491350215</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.3415625917712</v>
+        <v>12.83965729389658</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.245014778641478</v>
+        <v>5.426056947051736</v>
       </c>
       <c r="E6">
-        <v>9.526010357366387</v>
+        <v>14.6019850530479</v>
       </c>
       <c r="F6">
-        <v>22.77093179629661</v>
+        <v>28.31004572100988</v>
       </c>
       <c r="G6">
-        <v>31.42679964634464</v>
+        <v>35.89732953876842</v>
       </c>
       <c r="H6">
-        <v>10.81036327287752</v>
+        <v>15.97849179624157</v>
       </c>
       <c r="I6">
-        <v>18.94211286338208</v>
+        <v>27.66639556702869</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.36032901966741</v>
+        <v>8.656921060034943</v>
       </c>
       <c r="L6">
-        <v>6.736613846675167</v>
+        <v>9.218161919048772</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.5384873998559</v>
+        <v>12.87367130997492</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.248657605412884</v>
+        <v>5.428660922019529</v>
       </c>
       <c r="E7">
-        <v>9.507911533460645</v>
+        <v>14.59313511279368</v>
       </c>
       <c r="F7">
-        <v>22.97477590502089</v>
+        <v>28.32241124372491</v>
       </c>
       <c r="G7">
-        <v>31.74577767712161</v>
+        <v>35.93028536116242</v>
       </c>
       <c r="H7">
-        <v>10.82785196112265</v>
+        <v>15.96740990088711</v>
       </c>
       <c r="I7">
-        <v>18.88557793102986</v>
+        <v>27.63480151239803</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.62881665424447</v>
+        <v>8.793995367623216</v>
       </c>
       <c r="L7">
-        <v>6.830583521952706</v>
+        <v>9.228479492159511</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.37518369668401</v>
+        <v>13.02833866752139</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.264615826379909</v>
+        <v>5.439988095926987</v>
       </c>
       <c r="E8">
-        <v>9.433097245049728</v>
+        <v>14.55649764046924</v>
       </c>
       <c r="F8">
-        <v>23.90235809571989</v>
+        <v>28.3951659359449</v>
       </c>
       <c r="G8">
-        <v>33.19374020479662</v>
+        <v>36.10246754290451</v>
       </c>
       <c r="H8">
-        <v>10.92334924255677</v>
+        <v>15.92551943286212</v>
       </c>
       <c r="I8">
-        <v>18.6635952104982</v>
+        <v>27.5060289619069</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.75610771131093</v>
+        <v>9.370040543751609</v>
       </c>
       <c r="L8">
-        <v>7.239005995677624</v>
+        <v>9.27806099512016</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.89076629277308</v>
+        <v>13.34599938402441</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.295388613534197</v>
+        <v>5.461585009330543</v>
       </c>
       <c r="E9">
-        <v>9.305082870071756</v>
+        <v>14.49329277608499</v>
       </c>
       <c r="F9">
-        <v>25.81105390263504</v>
+        <v>28.60262923635028</v>
       </c>
       <c r="G9">
-        <v>36.15959758492365</v>
+        <v>36.5346342828589</v>
       </c>
       <c r="H9">
-        <v>11.18073792671331</v>
+        <v>15.86867503375828</v>
       </c>
       <c r="I9">
-        <v>18.33649223279964</v>
+        <v>27.29186666409629</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.75808627425862</v>
+        <v>10.39155940955511</v>
       </c>
       <c r="L9">
-        <v>8.090470627760924</v>
+        <v>9.389349919172142</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.92253480262608</v>
+        <v>13.58622634522405</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.317604736617771</v>
+        <v>5.477053836422803</v>
       </c>
       <c r="E10">
-        <v>9.223021908578508</v>
+        <v>14.4520866262997</v>
       </c>
       <c r="F10">
-        <v>27.25919192174344</v>
+        <v>28.79383163440645</v>
       </c>
       <c r="G10">
-        <v>38.40128726552852</v>
+        <v>36.9078767177729</v>
       </c>
       <c r="H10">
-        <v>11.41627915137955</v>
+        <v>15.84241954519631</v>
       </c>
       <c r="I10">
-        <v>18.1716597435951</v>
+        <v>27.15799791657651</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.10174891073704</v>
+        <v>11.07319996424344</v>
       </c>
       <c r="L10">
-        <v>8.808485689823065</v>
+        <v>9.4791869610135</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.3735019683065</v>
+        <v>13.69658347173546</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.327613947093849</v>
+        <v>5.483999694946126</v>
       </c>
       <c r="E11">
-        <v>9.188449871362103</v>
+        <v>14.43446875653585</v>
       </c>
       <c r="F11">
-        <v>27.92644987021343</v>
+        <v>28.88903310588901</v>
       </c>
       <c r="G11">
-        <v>39.43240842637203</v>
+        <v>37.0892791163667</v>
       </c>
       <c r="H11">
-        <v>11.53426688430502</v>
+        <v>15.83385683394596</v>
       </c>
       <c r="I11">
-        <v>18.11533246313763</v>
+        <v>27.10221483086637</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.68571618532127</v>
+        <v>11.36789381284754</v>
       </c>
       <c r="L11">
-        <v>9.120127215012864</v>
+        <v>9.521692726718729</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.54159658587737</v>
+        <v>13.73849285523729</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.331389442106365</v>
+        <v>5.486616403007703</v>
       </c>
       <c r="E12">
-        <v>9.175770231562113</v>
+        <v>14.42795879683462</v>
       </c>
       <c r="F12">
-        <v>28.18025297964076</v>
+        <v>28.92624522231219</v>
       </c>
       <c r="G12">
-        <v>39.82437026101825</v>
+        <v>37.15959335765507</v>
       </c>
       <c r="H12">
-        <v>11.58056384825684</v>
+        <v>15.83110135558037</v>
       </c>
       <c r="I12">
-        <v>18.09688846307608</v>
+        <v>27.08182839019111</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>18.90296991115568</v>
+        <v>11.47724564255046</v>
       </c>
       <c r="L12">
-        <v>9.23602319273329</v>
+        <v>9.538013663720527</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.50551379891681</v>
+        <v>13.72946216278715</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.330576989568153</v>
+        <v>5.486053457389284</v>
       </c>
       <c r="E13">
-        <v>9.178482425154749</v>
+        <v>14.4293536565531</v>
       </c>
       <c r="F13">
-        <v>28.125542992935</v>
+        <v>28.91817963145987</v>
       </c>
       <c r="G13">
-        <v>39.73988921053376</v>
+        <v>37.14437864514159</v>
       </c>
       <c r="H13">
-        <v>11.57052008941849</v>
+        <v>15.83167312489132</v>
       </c>
       <c r="I13">
-        <v>18.10072898779664</v>
+        <v>27.08618614777281</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.85635232793705</v>
+        <v>11.4537949060527</v>
       </c>
       <c r="L13">
-        <v>9.2111563589432</v>
+        <v>9.534488828319056</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.38738498936262</v>
+        <v>13.70002918763303</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.327924859386982</v>
+        <v>5.484215246998441</v>
       </c>
       <c r="E14">
-        <v>9.187398356033464</v>
+        <v>14.43392994356911</v>
       </c>
       <c r="F14">
-        <v>27.947308250416</v>
+        <v>28.89207142113045</v>
       </c>
       <c r="G14">
-        <v>39.46462591684438</v>
+        <v>37.09503171479464</v>
       </c>
       <c r="H14">
-        <v>11.53804300777331</v>
+        <v>15.83362037407993</v>
       </c>
       <c r="I14">
-        <v>18.11375601772431</v>
+        <v>27.10052283632533</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.70366731138421</v>
+        <v>11.37693534174105</v>
       </c>
       <c r="L14">
-        <v>9.129704214013607</v>
+        <v>9.523031014689511</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.31467839504816</v>
+        <v>13.68201516373389</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.326298408247499</v>
+        <v>5.48308751362507</v>
       </c>
       <c r="E15">
-        <v>9.192913774392158</v>
+        <v>14.43675407420057</v>
       </c>
       <c r="F15">
-        <v>27.8382788091894</v>
+        <v>28.87622997509295</v>
       </c>
       <c r="G15">
-        <v>39.29621123908768</v>
+        <v>37.06501489782285</v>
       </c>
       <c r="H15">
-        <v>11.51836225915622</v>
+        <v>15.83487656826271</v>
       </c>
       <c r="I15">
-        <v>18.12211752524896</v>
+        <v>27.10940056141736</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.60963916047551</v>
+        <v>11.32956384520252</v>
       </c>
       <c r="L15">
-        <v>9.079538101472387</v>
+        <v>9.516041741571012</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.89268983458537</v>
+        <v>13.57903289198763</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.316948583368188</v>
+        <v>5.476598038438938</v>
       </c>
       <c r="E16">
-        <v>9.225338044445095</v>
+        <v>14.45326062949694</v>
       </c>
       <c r="F16">
-        <v>27.21574721105154</v>
+        <v>28.78777370652927</v>
       </c>
       <c r="G16">
-        <v>38.33411698598404</v>
+        <v>36.89625123446251</v>
       </c>
       <c r="H16">
-        <v>11.40879152850231</v>
+        <v>15.8430472506259</v>
       </c>
       <c r="I16">
-        <v>18.17573335817386</v>
+        <v>27.16174655536102</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.06303961000078</v>
+        <v>11.05362871758936</v>
       </c>
       <c r="L16">
-        <v>8.787820867578718</v>
+        <v>9.476441174785714</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.62907502361343</v>
+        <v>13.51610720516362</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.311187264034085</v>
+        <v>5.472593327290802</v>
       </c>
       <c r="E17">
-        <v>9.245946026747712</v>
+        <v>14.46367515120333</v>
       </c>
       <c r="F17">
-        <v>26.83594314303303</v>
+        <v>28.73560038455841</v>
       </c>
       <c r="G17">
-        <v>37.74670140185606</v>
+        <v>36.7956609435583</v>
       </c>
       <c r="H17">
-        <v>11.34439161423574</v>
+        <v>15.84892633169694</v>
       </c>
       <c r="I17">
-        <v>18.21354385066745</v>
+        <v>27.19517045466677</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.72075788150012</v>
+        <v>10.8803872453623</v>
       </c>
       <c r="L17">
-        <v>8.605049901116303</v>
+        <v>9.452559680053092</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.47572064607163</v>
+        <v>13.48001746238831</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.307864410205651</v>
+        <v>5.470281385962518</v>
       </c>
       <c r="E18">
-        <v>9.258057741987262</v>
+        <v>14.46977141918996</v>
       </c>
       <c r="F18">
-        <v>26.61829317092893</v>
+        <v>28.70636701195157</v>
       </c>
       <c r="G18">
-        <v>37.40991027081218</v>
+        <v>36.73890026606593</v>
       </c>
       <c r="H18">
-        <v>11.30836722348802</v>
+        <v>15.85262602554225</v>
       </c>
       <c r="I18">
-        <v>18.23703451091236</v>
+        <v>27.21487628009227</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.52131638645983</v>
+        <v>10.77929630145281</v>
       </c>
       <c r="L18">
-        <v>8.498511625749238</v>
+        <v>9.438978559357718</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.42350160676699</v>
+        <v>13.46781694104497</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.306737815623415</v>
+        <v>5.469497149944244</v>
       </c>
       <c r="E19">
-        <v>9.262202527916546</v>
+        <v>14.47185375124814</v>
       </c>
       <c r="F19">
-        <v>26.54474194564142</v>
+        <v>28.69660286470209</v>
       </c>
       <c r="G19">
-        <v>37.29606815480481</v>
+        <v>36.71987177333259</v>
       </c>
       <c r="H19">
-        <v>11.29634280608555</v>
+        <v>15.85393330073633</v>
       </c>
       <c r="I19">
-        <v>18.24528142692598</v>
+        <v>27.2216309353841</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.45334649904731</v>
+        <v>10.74482111759117</v>
       </c>
       <c r="L19">
-        <v>8.462195738104446</v>
+        <v>9.434407145678783</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.65731661829726</v>
+        <v>13.52279530172266</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.311801514329675</v>
+        <v>5.473020522505199</v>
       </c>
       <c r="E20">
-        <v>9.243725407427913</v>
+        <v>14.46255552933625</v>
       </c>
       <c r="F20">
-        <v>26.87629157476973</v>
+        <v>28.74107422400635</v>
       </c>
       <c r="G20">
-        <v>37.80912270714988</v>
+        <v>36.80625584082595</v>
       </c>
       <c r="H20">
-        <v>11.35114143862912</v>
+        <v>15.84826755397412</v>
       </c>
       <c r="I20">
-        <v>18.20933702577579</v>
+        <v>27.19156259843286</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.75746010268476</v>
+        <v>10.89897909151252</v>
       </c>
       <c r="L20">
-        <v>8.624652176736124</v>
+        <v>9.455085952227828</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.42215511052631</v>
+        <v>13.70867140190655</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.328704260767956</v>
+        <v>5.484755544959015</v>
       </c>
       <c r="E21">
-        <v>9.184768215000853</v>
+        <v>14.43258139694826</v>
       </c>
       <c r="F21">
-        <v>27.99963012959153</v>
+        <v>28.89970869371339</v>
       </c>
       <c r="G21">
-        <v>39.54543756549305</v>
+        <v>37.10948251556728</v>
       </c>
       <c r="H21">
-        <v>11.54753794449898</v>
+        <v>15.83303519610101</v>
       </c>
       <c r="I21">
-        <v>18.1098496589214</v>
+        <v>27.09629177495817</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.74861958271773</v>
+        <v>11.39957192149258</v>
       </c>
       <c r="L21">
-        <v>9.153685776247611</v>
+        <v>9.526390434849731</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.90641468451088</v>
+        <v>13.83083274320883</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.339664842205136</v>
+        <v>5.492345943802681</v>
       </c>
       <c r="E22">
-        <v>9.14864666461307</v>
+        <v>14.41393294215088</v>
       </c>
       <c r="F22">
-        <v>28.74034424164893</v>
+        <v>29.01014370445187</v>
       </c>
       <c r="G22">
-        <v>40.68893035492754</v>
+        <v>37.31708247056182</v>
       </c>
       <c r="H22">
-        <v>11.68535031202425</v>
+        <v>15.825919025135</v>
       </c>
       <c r="I22">
-        <v>18.06175346743451</v>
+        <v>27.03832583503766</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.37379913916244</v>
+        <v>11.71365852450034</v>
       </c>
       <c r="L22">
-        <v>9.48712773563515</v>
+        <v>9.574297867786719</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.64939078828225</v>
+        <v>13.76558225750276</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.333823086188445</v>
+        <v>5.488302193273907</v>
       </c>
       <c r="E23">
-        <v>9.167699211454822</v>
+        <v>14.42380000713055</v>
       </c>
       <c r="F23">
-        <v>28.34443525223721</v>
+        <v>28.95059157022672</v>
       </c>
       <c r="G23">
-        <v>40.07786062541634</v>
+        <v>37.20543724238863</v>
       </c>
       <c r="H23">
-        <v>11.61091255641803</v>
+        <v>15.82945706018305</v>
       </c>
       <c r="I23">
-        <v>18.08580432236164</v>
+        <v>27.06886934247878</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.04218078595421</v>
+        <v>11.54722966636469</v>
       </c>
       <c r="L23">
-        <v>9.31027605251143</v>
+        <v>9.548612908869011</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.6445541932791</v>
+        <v>13.51977133935434</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.311523844705781</v>
+        <v>5.47282741733189</v>
       </c>
       <c r="E24">
-        <v>9.24472852853839</v>
+        <v>14.46306137141063</v>
       </c>
       <c r="F24">
-        <v>26.8580478470424</v>
+        <v>28.73859712670433</v>
       </c>
       <c r="G24">
-        <v>37.7808991524898</v>
+        <v>36.80146255098222</v>
       </c>
       <c r="H24">
-        <v>11.34808673277209</v>
+        <v>15.84856439145283</v>
       </c>
       <c r="I24">
-        <v>18.21123348663777</v>
+        <v>27.19319218406924</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.74087531406252</v>
+        <v>10.89057836325981</v>
       </c>
       <c r="L24">
-        <v>8.615794540952242</v>
+        <v>9.453943360682251</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.49481832965827</v>
+        <v>13.25872216653001</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.287127913608312</v>
+        <v>5.455810779248309</v>
       </c>
       <c r="E25">
-        <v>9.337655966505967</v>
+        <v>14.50947016553223</v>
       </c>
       <c r="F25">
-        <v>25.28607227407752</v>
+        <v>28.53963346317921</v>
       </c>
       <c r="G25">
-        <v>35.34532680208078</v>
+        <v>36.40778007347861</v>
       </c>
       <c r="H25">
-        <v>11.10321071225276</v>
+        <v>15.88133484612652</v>
       </c>
       <c r="I25">
-        <v>18.4124539465637</v>
+        <v>27.34568713568594</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.23889503478804</v>
+        <v>10.12712765801771</v>
       </c>
       <c r="L25">
-        <v>7.812526493083285</v>
+        <v>9.357787496339579</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_19/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.071287250291</v>
+        <v>11.59367740717638</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.443016395741304</v>
+        <v>4.268907574037783</v>
       </c>
       <c r="E2">
-        <v>14.54715690855897</v>
+        <v>9.414072176002335</v>
       </c>
       <c r="F2">
-        <v>28.41928462559851</v>
+        <v>24.16011835501311</v>
       </c>
       <c r="G2">
-        <v>36.1555759582659</v>
+        <v>33.59521954186372</v>
       </c>
       <c r="H2">
-        <v>15.91587805671281</v>
+        <v>10.95382677567448</v>
       </c>
       <c r="I2">
-        <v>27.47373069310889</v>
+        <v>18.6104408685276</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.518937294812984</v>
+        <v>15.0474660216167</v>
       </c>
       <c r="L2">
-        <v>9.292463822702416</v>
+        <v>7.34790283168193</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.94786705058702</v>
+        <v>10.95066429685155</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.434187551302804</v>
+        <v>4.256423141521501</v>
       </c>
       <c r="E3">
-        <v>14.57490374897035</v>
+        <v>9.470652795164314</v>
       </c>
       <c r="F3">
-        <v>28.35426764396928</v>
+        <v>23.41961613196162</v>
       </c>
       <c r="G3">
-        <v>36.00876702175115</v>
+        <v>32.44084734543431</v>
       </c>
       <c r="H3">
-        <v>15.94575746166695</v>
+        <v>10.87065322796343</v>
       </c>
       <c r="I3">
-        <v>27.57031085720966</v>
+        <v>18.77256230391751</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.078988428046284</v>
+        <v>14.18664412836316</v>
       </c>
       <c r="L3">
-        <v>9.25177194800785</v>
+        <v>7.030006638731709</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.87407191082984</v>
+        <v>10.54077454288923</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.428691303457657</v>
+        <v>4.248700172280059</v>
       </c>
       <c r="E4">
-        <v>14.59303288138494</v>
+        <v>9.507702497155305</v>
       </c>
       <c r="F4">
-        <v>28.3225659056101</v>
+        <v>22.97717702165478</v>
       </c>
       <c r="G4">
-        <v>35.93068568302515</v>
+        <v>31.74953312840832</v>
       </c>
       <c r="H4">
-        <v>15.96728406028783</v>
+        <v>10.82806641388483</v>
       </c>
       <c r="I4">
-        <v>27.63443764371311</v>
+        <v>18.88493103364983</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.795583783142865</v>
+        <v>13.63192700011721</v>
       </c>
       <c r="L4">
-        <v>9.228602459191478</v>
+        <v>6.831680030344077</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.84452983770865</v>
+        <v>10.37011417489456</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.426433035499248</v>
+        <v>4.245540209465155</v>
       </c>
       <c r="E5">
-        <v>14.60069595910006</v>
+        <v>9.523373742396393</v>
       </c>
       <c r="F5">
-        <v>28.31172107630866</v>
+        <v>22.80012913475062</v>
       </c>
       <c r="G5">
-        <v>35.90192092005614</v>
+        <v>31.47250750742456</v>
       </c>
       <c r="H5">
-        <v>15.97685447914951</v>
+        <v>10.81277889510237</v>
       </c>
       <c r="I5">
-        <v>27.66178190969124</v>
+        <v>18.93381311875421</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.676833787356346</v>
+        <v>13.399342284042</v>
       </c>
       <c r="L5">
-        <v>9.219624491350215</v>
+        <v>6.750183581439541</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.83965729389658</v>
+        <v>10.34156259177116</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.426056947051736</v>
+        <v>4.245014778641345</v>
       </c>
       <c r="E6">
-        <v>14.6019850530479</v>
+        <v>9.526010357366456</v>
       </c>
       <c r="F6">
-        <v>28.31004572100988</v>
+        <v>22.7709317962966</v>
       </c>
       <c r="G6">
-        <v>35.89732953876842</v>
+        <v>31.42679964634454</v>
       </c>
       <c r="H6">
-        <v>15.97849179624157</v>
+        <v>10.81036327287752</v>
       </c>
       <c r="I6">
-        <v>27.66639556702869</v>
+        <v>18.94211286338199</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.656921060034943</v>
+        <v>13.36032901966747</v>
       </c>
       <c r="L6">
-        <v>9.218161919048772</v>
+        <v>6.736613846675163</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.87367130997492</v>
+        <v>10.53848739985594</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.428660922019529</v>
+        <v>4.248657605412943</v>
       </c>
       <c r="E7">
-        <v>14.59313511279368</v>
+        <v>9.507911533460781</v>
       </c>
       <c r="F7">
-        <v>28.32241124372491</v>
+        <v>22.97477590502102</v>
       </c>
       <c r="G7">
-        <v>35.93028536116242</v>
+        <v>31.74577767712178</v>
       </c>
       <c r="H7">
-        <v>15.96740990088711</v>
+        <v>10.82785196112276</v>
       </c>
       <c r="I7">
-        <v>27.63480151239803</v>
+        <v>18.88557793102992</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.793995367623216</v>
+        <v>13.62881665424437</v>
       </c>
       <c r="L7">
-        <v>9.228479492159511</v>
+        <v>6.830583521952753</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.02833866752139</v>
+        <v>11.37518369668398</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.439988095926987</v>
+        <v>4.264615826380036</v>
       </c>
       <c r="E8">
-        <v>14.55649764046924</v>
+        <v>9.433097245049598</v>
       </c>
       <c r="F8">
-        <v>28.3951659359449</v>
+        <v>23.90235809571988</v>
       </c>
       <c r="G8">
-        <v>36.10246754290451</v>
+        <v>33.19374020479664</v>
       </c>
       <c r="H8">
-        <v>15.92551943286212</v>
+        <v>10.92334924255679</v>
       </c>
       <c r="I8">
-        <v>27.5060289619069</v>
+        <v>18.66359521049808</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.370040543751609</v>
+        <v>14.75610771131089</v>
       </c>
       <c r="L8">
-        <v>9.27806099512016</v>
+        <v>7.239005995677646</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.34599938402441</v>
+        <v>12.89076629277308</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.461585009330543</v>
+        <v>4.295388613534254</v>
       </c>
       <c r="E9">
-        <v>14.49329277608499</v>
+        <v>9.305082870071562</v>
       </c>
       <c r="F9">
-        <v>28.60262923635028</v>
+        <v>25.81105390263499</v>
       </c>
       <c r="G9">
-        <v>36.5346342828589</v>
+        <v>36.15959758492364</v>
       </c>
       <c r="H9">
-        <v>15.86867503375828</v>
+        <v>11.18073792671331</v>
       </c>
       <c r="I9">
-        <v>27.29186666409629</v>
+        <v>18.33649223279956</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.39155940955511</v>
+        <v>16.75808627425858</v>
       </c>
       <c r="L9">
-        <v>9.389349919172142</v>
+        <v>8.090470627760871</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.58622634522405</v>
+        <v>13.92253480262608</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.477053836422803</v>
+        <v>4.317604736617761</v>
       </c>
       <c r="E10">
-        <v>14.4520866262997</v>
+        <v>9.223021908578513</v>
       </c>
       <c r="F10">
-        <v>28.79383163440645</v>
+        <v>27.25919192174346</v>
       </c>
       <c r="G10">
-        <v>36.9078767177729</v>
+        <v>38.40128726552861</v>
       </c>
       <c r="H10">
-        <v>15.84241954519631</v>
+        <v>11.41627915137954</v>
       </c>
       <c r="I10">
-        <v>27.15799791657651</v>
+        <v>18.17165974359507</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.07319996424344</v>
+        <v>18.10174891073699</v>
       </c>
       <c r="L10">
-        <v>9.4791869610135</v>
+        <v>8.808485689823064</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.69658347173546</v>
+        <v>14.37350196830647</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.483999694946126</v>
+        <v>4.327613947093965</v>
       </c>
       <c r="E11">
-        <v>14.43446875653585</v>
+        <v>9.188449871362177</v>
       </c>
       <c r="F11">
-        <v>28.88903310588901</v>
+        <v>27.92644987021342</v>
       </c>
       <c r="G11">
-        <v>37.0892791163667</v>
+        <v>39.43240842637208</v>
       </c>
       <c r="H11">
-        <v>15.83385683394596</v>
+        <v>11.53426688430502</v>
       </c>
       <c r="I11">
-        <v>27.10221483086637</v>
+        <v>18.11533246313759</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.36789381284754</v>
+        <v>18.68571618532131</v>
       </c>
       <c r="L11">
-        <v>9.521692726718729</v>
+        <v>9.120127215012888</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.73849285523729</v>
+        <v>14.5415965858774</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.486616403007703</v>
+        <v>4.331389442106177</v>
       </c>
       <c r="E12">
-        <v>14.42795879683462</v>
+        <v>9.175770231561986</v>
       </c>
       <c r="F12">
-        <v>28.92624522231219</v>
+        <v>28.18025297964082</v>
       </c>
       <c r="G12">
-        <v>37.15959335765507</v>
+        <v>39.82437026101831</v>
       </c>
       <c r="H12">
-        <v>15.83110135558037</v>
+        <v>11.58056384825691</v>
       </c>
       <c r="I12">
-        <v>27.08182839019111</v>
+        <v>18.09688846307616</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.47724564255046</v>
+        <v>18.90296991115558</v>
       </c>
       <c r="L12">
-        <v>9.538013663720527</v>
+        <v>9.236023192733303</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.72946216278715</v>
+        <v>14.50551379891681</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.486053457389284</v>
+        <v>4.330576989568276</v>
       </c>
       <c r="E13">
-        <v>14.4293536565531</v>
+        <v>9.178482425154554</v>
       </c>
       <c r="F13">
-        <v>28.91817963145987</v>
+        <v>28.12554299293501</v>
       </c>
       <c r="G13">
-        <v>37.14437864514159</v>
+        <v>39.73988921053373</v>
       </c>
       <c r="H13">
-        <v>15.83167312489132</v>
+        <v>11.57052008941854</v>
       </c>
       <c r="I13">
-        <v>27.08618614777281</v>
+        <v>18.10072898779663</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.4537949060527</v>
+        <v>18.85635232793704</v>
       </c>
       <c r="L13">
-        <v>9.534488828319056</v>
+        <v>9.211156358943237</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.70002918763303</v>
+        <v>14.38738498936261</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.484215246998441</v>
+        <v>4.327924859387109</v>
       </c>
       <c r="E14">
-        <v>14.43392994356911</v>
+        <v>9.187398356033402</v>
       </c>
       <c r="F14">
-        <v>28.89207142113045</v>
+        <v>27.94730825041603</v>
       </c>
       <c r="G14">
-        <v>37.09503171479464</v>
+        <v>39.46462591684444</v>
       </c>
       <c r="H14">
-        <v>15.83362037407993</v>
+        <v>11.53804300777337</v>
       </c>
       <c r="I14">
-        <v>27.10052283632533</v>
+        <v>18.11375601772436</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.37693534174105</v>
+        <v>18.70366731138425</v>
       </c>
       <c r="L14">
-        <v>9.523031014689511</v>
+        <v>9.129704214013614</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.68201516373389</v>
+        <v>14.31467839504814</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.48308751362507</v>
+        <v>4.326298408247555</v>
       </c>
       <c r="E15">
-        <v>14.43675407420057</v>
+        <v>9.192913774392224</v>
       </c>
       <c r="F15">
-        <v>28.87622997509295</v>
+        <v>27.83827880918947</v>
       </c>
       <c r="G15">
-        <v>37.06501489782285</v>
+        <v>39.29621123908781</v>
       </c>
       <c r="H15">
-        <v>15.83487656826271</v>
+        <v>11.51836225915624</v>
       </c>
       <c r="I15">
-        <v>27.10940056141736</v>
+        <v>18.12211752524892</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.32956384520252</v>
+        <v>18.60963916047551</v>
       </c>
       <c r="L15">
-        <v>9.516041741571012</v>
+        <v>9.079538101472385</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.57903289198763</v>
+        <v>13.89268983458537</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.476598038438938</v>
+        <v>4.316948583368374</v>
       </c>
       <c r="E16">
-        <v>14.45326062949694</v>
+        <v>9.225338044444968</v>
       </c>
       <c r="F16">
-        <v>28.78777370652927</v>
+        <v>27.21574721105152</v>
       </c>
       <c r="G16">
-        <v>36.89625123446251</v>
+        <v>38.33411698598403</v>
       </c>
       <c r="H16">
-        <v>15.8430472506259</v>
+        <v>11.4087915285023</v>
       </c>
       <c r="I16">
-        <v>27.16174655536102</v>
+        <v>18.17573335817383</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.05362871758936</v>
+        <v>18.06303961000079</v>
       </c>
       <c r="L16">
-        <v>9.476441174785714</v>
+        <v>8.787820867578777</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.51610720516362</v>
+        <v>13.62907502361342</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.472593327290802</v>
+        <v>4.311187264034206</v>
       </c>
       <c r="E17">
-        <v>14.46367515120333</v>
+        <v>9.24594602674771</v>
       </c>
       <c r="F17">
-        <v>28.73560038455841</v>
+        <v>26.83594314303305</v>
       </c>
       <c r="G17">
-        <v>36.7956609435583</v>
+        <v>37.7467014018561</v>
       </c>
       <c r="H17">
-        <v>15.84892633169694</v>
+        <v>11.34439161423575</v>
       </c>
       <c r="I17">
-        <v>27.19517045466677</v>
+        <v>18.21354385066752</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.8803872453623</v>
+        <v>17.72075788150016</v>
       </c>
       <c r="L17">
-        <v>9.452559680053092</v>
+        <v>8.605049901116333</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.48001746238831</v>
+        <v>13.4757206460716</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.470281385962518</v>
+        <v>4.307864410205651</v>
       </c>
       <c r="E18">
-        <v>14.46977141918996</v>
+        <v>9.258057741987267</v>
       </c>
       <c r="F18">
-        <v>28.70636701195157</v>
+        <v>26.61829317092886</v>
       </c>
       <c r="G18">
-        <v>36.73890026606593</v>
+        <v>37.40991027081211</v>
       </c>
       <c r="H18">
-        <v>15.85262602554225</v>
+        <v>11.30836722348803</v>
       </c>
       <c r="I18">
-        <v>27.21487628009227</v>
+        <v>18.23703451091221</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.77929630145281</v>
+        <v>17.52131638645984</v>
       </c>
       <c r="L18">
-        <v>9.438978559357718</v>
+        <v>8.498511625749209</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.46781694104497</v>
+        <v>13.42350160676699</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.469497149944244</v>
+        <v>4.306737815623357</v>
       </c>
       <c r="E19">
-        <v>14.47185375124814</v>
+        <v>9.262202527916742</v>
       </c>
       <c r="F19">
-        <v>28.69660286470209</v>
+        <v>26.54474194564141</v>
       </c>
       <c r="G19">
-        <v>36.71987177333259</v>
+        <v>37.29606815480479</v>
       </c>
       <c r="H19">
-        <v>15.85393330073633</v>
+        <v>11.29634280608555</v>
       </c>
       <c r="I19">
-        <v>27.2216309353841</v>
+        <v>18.24528142692597</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.74482111759117</v>
+        <v>17.45334649904732</v>
       </c>
       <c r="L19">
-        <v>9.434407145678783</v>
+        <v>8.462195738104365</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.52279530172266</v>
+        <v>13.65731661829725</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.473020522505199</v>
+        <v>4.311801514329925</v>
       </c>
       <c r="E20">
-        <v>14.46255552933625</v>
+        <v>9.243725407428048</v>
       </c>
       <c r="F20">
-        <v>28.74107422400635</v>
+        <v>26.87629157476977</v>
       </c>
       <c r="G20">
-        <v>36.80625584082595</v>
+        <v>37.80912270714994</v>
       </c>
       <c r="H20">
-        <v>15.84826755397412</v>
+        <v>11.35114143862918</v>
       </c>
       <c r="I20">
-        <v>27.19156259843286</v>
+        <v>18.20933702577587</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.89897909151252</v>
+        <v>17.75746010268472</v>
       </c>
       <c r="L20">
-        <v>9.455085952227828</v>
+        <v>8.624652176736108</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.70867140190655</v>
+        <v>14.4221551105263</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.484755544959015</v>
+        <v>4.328704260768075</v>
       </c>
       <c r="E21">
-        <v>14.43258139694826</v>
+        <v>9.184768215000794</v>
       </c>
       <c r="F21">
-        <v>28.89970869371339</v>
+        <v>27.99963012959152</v>
       </c>
       <c r="G21">
-        <v>37.10948251556728</v>
+        <v>39.54543756549305</v>
       </c>
       <c r="H21">
-        <v>15.83303519610101</v>
+        <v>11.54753794449894</v>
       </c>
       <c r="I21">
-        <v>27.09629177495817</v>
+        <v>18.10984965892124</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.39957192149258</v>
+        <v>18.74861958271771</v>
       </c>
       <c r="L21">
-        <v>9.526390434849731</v>
+        <v>9.153685776247583</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.83083274320883</v>
+        <v>14.90641468451089</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.492345943802681</v>
+        <v>4.339664842205132</v>
       </c>
       <c r="E22">
-        <v>14.41393294215088</v>
+        <v>9.148646664613073</v>
       </c>
       <c r="F22">
-        <v>29.01014370445187</v>
+        <v>28.74034424164895</v>
       </c>
       <c r="G22">
-        <v>37.31708247056182</v>
+        <v>40.68893035492755</v>
       </c>
       <c r="H22">
-        <v>15.825919025135</v>
+        <v>11.68535031202426</v>
       </c>
       <c r="I22">
-        <v>27.03832583503766</v>
+        <v>18.06175346743452</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.71365852450034</v>
+        <v>19.37379913916243</v>
       </c>
       <c r="L22">
-        <v>9.574297867786719</v>
+        <v>9.487127735635191</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.76558225750276</v>
+        <v>14.64939078828224</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.488302193273907</v>
+        <v>4.333823086188627</v>
       </c>
       <c r="E23">
-        <v>14.42380000713055</v>
+        <v>9.167699211454755</v>
       </c>
       <c r="F23">
-        <v>28.95059157022672</v>
+        <v>28.34443525223727</v>
       </c>
       <c r="G23">
-        <v>37.20543724238863</v>
+        <v>40.07786062541641</v>
       </c>
       <c r="H23">
-        <v>15.82945706018305</v>
+        <v>11.61091255641807</v>
       </c>
       <c r="I23">
-        <v>27.06886934247878</v>
+        <v>18.08580432236175</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.54722966636469</v>
+        <v>19.04218078595419</v>
       </c>
       <c r="L23">
-        <v>9.548612908869011</v>
+        <v>9.310276052511426</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.51977133935434</v>
+        <v>13.64455419327909</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.47282741733189</v>
+        <v>4.311523844705837</v>
       </c>
       <c r="E24">
-        <v>14.46306137141063</v>
+        <v>9.244728528538323</v>
       </c>
       <c r="F24">
-        <v>28.73859712670433</v>
+        <v>26.85804784704244</v>
       </c>
       <c r="G24">
-        <v>36.80146255098222</v>
+        <v>37.78089915248991</v>
       </c>
       <c r="H24">
-        <v>15.84856439145283</v>
+        <v>11.34808673277211</v>
       </c>
       <c r="I24">
-        <v>27.19319218406924</v>
+        <v>18.21123348663781</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.89057836325981</v>
+        <v>17.7408753140625</v>
       </c>
       <c r="L24">
-        <v>9.453943360682251</v>
+        <v>8.615794540952241</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.25872216653001</v>
+        <v>12.49481832965825</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.455810779248309</v>
+        <v>4.287127913608433</v>
       </c>
       <c r="E25">
-        <v>14.50947016553223</v>
+        <v>9.337655966505839</v>
       </c>
       <c r="F25">
-        <v>28.53963346317921</v>
+        <v>25.28607227407752</v>
       </c>
       <c r="G25">
-        <v>36.40778007347861</v>
+        <v>35.3453268020809</v>
       </c>
       <c r="H25">
-        <v>15.88133484612652</v>
+        <v>11.10321071225271</v>
       </c>
       <c r="I25">
-        <v>27.34568713568594</v>
+        <v>18.41245394656372</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.12712765801771</v>
+        <v>16.23889503478802</v>
       </c>
       <c r="L25">
-        <v>9.357787496339579</v>
+        <v>7.812526493083305</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,43 +415,49 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.59367740717638</v>
+        <v>24.03951969628698</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.268907574037783</v>
+        <v>6.062977300543665</v>
       </c>
       <c r="E2">
-        <v>9.414072176002335</v>
+        <v>34.90486714003239</v>
       </c>
       <c r="F2">
-        <v>24.16011835501311</v>
+        <v>52.78707250553389</v>
       </c>
       <c r="G2">
-        <v>33.59521954186372</v>
+        <v>85.32644986344235</v>
       </c>
       <c r="H2">
-        <v>10.95382677567448</v>
+        <v>5.89440273973625</v>
       </c>
       <c r="I2">
-        <v>18.6104408685276</v>
+        <v>3.005390845382252</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>21.29825782567971</v>
       </c>
       <c r="K2">
-        <v>15.0474660216167</v>
+        <v>70.04831980844875</v>
       </c>
       <c r="L2">
-        <v>7.34790283168193</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,43 +468,49 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.95066429685155</v>
+        <v>22.4710358935919</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.256423141521501</v>
+        <v>5.67262198742571</v>
       </c>
       <c r="E3">
-        <v>9.470652795164314</v>
+        <v>32.55253779777064</v>
       </c>
       <c r="F3">
-        <v>23.41961613196162</v>
+        <v>48.95375306580581</v>
       </c>
       <c r="G3">
-        <v>32.44084734543431</v>
+        <v>79.12098551423178</v>
       </c>
       <c r="H3">
-        <v>10.87065322796343</v>
+        <v>5.407222168350232</v>
       </c>
       <c r="I3">
-        <v>18.77256230391751</v>
+        <v>3.192510874708797</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>19.75730384935114</v>
       </c>
       <c r="K3">
-        <v>14.18664412836316</v>
+        <v>65.44940052185447</v>
       </c>
       <c r="L3">
-        <v>7.030006638731709</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -509,43 +521,49 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.54077454288923</v>
+        <v>21.44996014040529</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.248700172280059</v>
+        <v>5.424096896763909</v>
       </c>
       <c r="E4">
-        <v>9.507702497155305</v>
+        <v>31.05334773865635</v>
       </c>
       <c r="F4">
-        <v>22.97717702165478</v>
+        <v>46.49900485598059</v>
       </c>
       <c r="G4">
-        <v>31.74953312840832</v>
+        <v>75.14615012813191</v>
       </c>
       <c r="H4">
-        <v>10.82806641388483</v>
+        <v>5.103781497569486</v>
       </c>
       <c r="I4">
-        <v>18.88493103364983</v>
+        <v>3.308238040789103</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>18.83997953883836</v>
       </c>
       <c r="K4">
-        <v>13.63192700011721</v>
+        <v>62.55294165479126</v>
       </c>
       <c r="L4">
-        <v>6.831680030344077</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -556,43 +574,49 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.37011417489456</v>
+        <v>21.01912480060329</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.245540209465155</v>
+        <v>5.320555927933452</v>
       </c>
       <c r="E5">
-        <v>9.523373742396393</v>
+        <v>30.42813651467054</v>
       </c>
       <c r="F5">
-        <v>22.80012913475062</v>
+        <v>45.47252714163682</v>
       </c>
       <c r="G5">
-        <v>31.47250750742456</v>
+        <v>73.48374896182813</v>
       </c>
       <c r="H5">
-        <v>10.81277889510237</v>
+        <v>4.978848370806226</v>
       </c>
       <c r="I5">
-        <v>18.93381311875421</v>
+        <v>3.357057364133015</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>18.47330760658275</v>
       </c>
       <c r="K5">
-        <v>13.399342284042</v>
+        <v>61.41579519922226</v>
       </c>
       <c r="L5">
-        <v>6.750183581439541</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -603,43 +627,49 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.34156259177116</v>
+        <v>20.94660719316659</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.245014778641345</v>
+        <v>5.303225409428647</v>
       </c>
       <c r="E6">
-        <v>9.526010357366456</v>
+        <v>30.32344564102851</v>
       </c>
       <c r="F6">
-        <v>22.7709317962966</v>
+        <v>45.30048279507524</v>
       </c>
       <c r="G6">
-        <v>31.42679964634454</v>
+        <v>73.20510186009429</v>
       </c>
       <c r="H6">
-        <v>10.81036327287752</v>
+        <v>4.958020807786976</v>
       </c>
       <c r="I6">
-        <v>18.94211286338199</v>
+        <v>3.367086934272861</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>18.41197309688292</v>
       </c>
       <c r="K6">
-        <v>13.36032901966747</v>
+        <v>61.31282198545125</v>
       </c>
       <c r="L6">
-        <v>6.736613846675163</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -650,43 +680,49 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.53848739985594</v>
+        <v>21.44400016915308</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.248657605412943</v>
+        <v>5.422709717770315</v>
       </c>
       <c r="E7">
-        <v>9.507911533460781</v>
+        <v>31.04497431879031</v>
       </c>
       <c r="F7">
-        <v>22.97477590502102</v>
+        <v>46.48526817627108</v>
       </c>
       <c r="G7">
-        <v>31.74577767712178</v>
+        <v>75.12390447095395</v>
       </c>
       <c r="H7">
-        <v>10.82785196112276</v>
+        <v>5.102102024577611</v>
       </c>
       <c r="I7">
-        <v>18.88557793102992</v>
+        <v>3.313786387276969</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>18.83506455751946</v>
       </c>
       <c r="K7">
-        <v>13.62881665424437</v>
+        <v>62.77205030764404</v>
       </c>
       <c r="L7">
-        <v>6.830583521952753</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -697,43 +733,49 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.37518369668398</v>
+        <v>23.5106048262064</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.264615826380036</v>
+        <v>5.930188023630573</v>
       </c>
       <c r="E8">
-        <v>9.433097245049598</v>
+        <v>34.10484770371732</v>
       </c>
       <c r="F8">
-        <v>23.90235809571988</v>
+        <v>51.48584467205289</v>
       </c>
       <c r="G8">
-        <v>33.19374020479664</v>
+        <v>83.2201883949531</v>
       </c>
       <c r="H8">
-        <v>10.92334924255679</v>
+        <v>5.727192860371525</v>
       </c>
       <c r="I8">
-        <v>18.66359521049808</v>
+        <v>3.075717945874169</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>20.77512148296438</v>
       </c>
       <c r="K8">
-        <v>14.75610771131089</v>
+        <v>68.78359402129654</v>
       </c>
       <c r="L8">
-        <v>7.239005995677646</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -744,43 +786,49 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.89076629277308</v>
+        <v>27.11809087932017</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.295388613534254</v>
+        <v>6.858093798537354</v>
       </c>
       <c r="E9">
-        <v>9.305082870071562</v>
+        <v>39.69706429092414</v>
       </c>
       <c r="F9">
-        <v>25.81105390263499</v>
+        <v>60.52974087017593</v>
       </c>
       <c r="G9">
-        <v>36.15959758492364</v>
+        <v>97.85611462207902</v>
       </c>
       <c r="H9">
-        <v>11.18073792671331</v>
+        <v>6.928971548006138</v>
       </c>
       <c r="I9">
-        <v>18.33649223279956</v>
+        <v>2.607337829566317</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>24.41207428071468</v>
       </c>
       <c r="K9">
-        <v>16.75808627425858</v>
+        <v>79.22058890757523</v>
       </c>
       <c r="L9">
-        <v>8.090470627760871</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -791,43 +839,49 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.92253480262608</v>
+        <v>29.52590840198575</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.317604736617761</v>
+        <v>7.448061899969691</v>
       </c>
       <c r="E10">
-        <v>9.223021908578513</v>
+        <v>42.71195693367495</v>
       </c>
       <c r="F10">
-        <v>27.25919192174346</v>
+        <v>66.37627525066524</v>
       </c>
       <c r="G10">
-        <v>38.40128726552861</v>
+        <v>107.2695417812145</v>
       </c>
       <c r="H10">
-        <v>11.41627915137954</v>
+        <v>7.746997667664147</v>
       </c>
       <c r="I10">
-        <v>18.17165974359507</v>
+        <v>2.694300863279475</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>26.75227078801586</v>
       </c>
       <c r="K10">
-        <v>18.10174891073699</v>
+        <v>86.33114078562357</v>
       </c>
       <c r="L10">
-        <v>8.808485689823064</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -838,43 +892,49 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.37350196830647</v>
+        <v>30.56501963939838</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.327613947093965</v>
+        <v>6.92720321958501</v>
       </c>
       <c r="E11">
-        <v>9.188449871362177</v>
+        <v>36.62446685192158</v>
       </c>
       <c r="F11">
-        <v>27.92644987021342</v>
+        <v>65.54910715248732</v>
       </c>
       <c r="G11">
-        <v>39.43240842637208</v>
+        <v>105.5258100307507</v>
       </c>
       <c r="H11">
-        <v>11.53426688430502</v>
+        <v>7.855890534706781</v>
       </c>
       <c r="I11">
-        <v>18.11533246313759</v>
+        <v>2.863409948912029</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>26.31125789452344</v>
       </c>
       <c r="K11">
-        <v>18.68571618532131</v>
+        <v>89.71136125585001</v>
       </c>
       <c r="L11">
-        <v>9.120127215012888</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -885,43 +945,49 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.5415965858774</v>
+        <v>30.94890444533599</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.331389442106177</v>
+        <v>6.371356698741702</v>
       </c>
       <c r="E12">
-        <v>9.175770231561986</v>
+        <v>31.18394436293255</v>
       </c>
       <c r="F12">
-        <v>28.18025297964082</v>
+        <v>63.65770087865032</v>
       </c>
       <c r="G12">
-        <v>39.82437026101831</v>
+        <v>102.134242655914</v>
       </c>
       <c r="H12">
-        <v>11.58056384825691</v>
+        <v>8.197726582175731</v>
       </c>
       <c r="I12">
-        <v>18.09688846307616</v>
+        <v>2.920602483785751</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>25.46073144774734</v>
       </c>
       <c r="K12">
-        <v>18.90296991115558</v>
+        <v>90.81436820082371</v>
       </c>
       <c r="L12">
-        <v>9.236023192733303</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -932,43 +998,49 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.50551379891681</v>
+        <v>30.86632728123276</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.330576989568276</v>
+        <v>5.743963296425758</v>
       </c>
       <c r="E13">
-        <v>9.178482425154554</v>
+        <v>25.94507411239645</v>
       </c>
       <c r="F13">
-        <v>28.12554299293501</v>
+        <v>60.79170388468768</v>
       </c>
       <c r="G13">
-        <v>39.73988921053373</v>
+        <v>97.19376870763044</v>
       </c>
       <c r="H13">
-        <v>11.57052008941854</v>
+        <v>8.70838568394006</v>
       </c>
       <c r="I13">
-        <v>18.10072898779663</v>
+        <v>2.90678073180813</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>24.2245000735063</v>
       </c>
       <c r="K13">
-        <v>18.85635232793704</v>
+        <v>90.54689708968301</v>
       </c>
       <c r="L13">
-        <v>9.211156358943237</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -979,43 +1051,49 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.38738498936261</v>
+        <v>30.5966553101952</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.327924859387109</v>
+        <v>5.269943871679226</v>
       </c>
       <c r="E14">
-        <v>9.187398356033402</v>
+        <v>22.56355132598437</v>
       </c>
       <c r="F14">
-        <v>27.94730825041603</v>
+        <v>58.32355910182123</v>
       </c>
       <c r="G14">
-        <v>39.46462591684444</v>
+        <v>92.99711155019756</v>
       </c>
       <c r="H14">
-        <v>11.53804300777337</v>
+        <v>9.17135373369117</v>
       </c>
       <c r="I14">
-        <v>18.11375601772436</v>
+        <v>2.867465423457678</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>23.17504405299849</v>
       </c>
       <c r="K14">
-        <v>18.70366731138425</v>
+        <v>89.78932321383637</v>
       </c>
       <c r="L14">
-        <v>9.129704214013614</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1026,43 +1104,49 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.31467839504814</v>
+        <v>30.43091025861329</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.326298408247555</v>
+        <v>5.136505107212911</v>
       </c>
       <c r="E15">
-        <v>9.192913774392224</v>
+        <v>21.74756220727798</v>
       </c>
       <c r="F15">
-        <v>27.83827880918947</v>
+        <v>57.50363434847095</v>
       </c>
       <c r="G15">
-        <v>39.29621123908781</v>
+        <v>91.62568992545424</v>
       </c>
       <c r="H15">
-        <v>11.51836225915624</v>
+        <v>9.269499742469216</v>
       </c>
       <c r="I15">
-        <v>18.12211752524892</v>
+        <v>2.846492030909892</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>22.83256660581976</v>
       </c>
       <c r="K15">
-        <v>18.60963916047551</v>
+        <v>89.38425024055321</v>
       </c>
       <c r="L15">
-        <v>9.079538101472385</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1073,43 +1157,49 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.89268983458537</v>
+        <v>29.4610230762265</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.316948583368374</v>
+        <v>4.974303253536829</v>
       </c>
       <c r="E16">
-        <v>9.225338044444968</v>
+        <v>21.15317517840069</v>
       </c>
       <c r="F16">
-        <v>27.21574721105152</v>
+        <v>55.4890165624166</v>
       </c>
       <c r="G16">
-        <v>38.33411698598403</v>
+        <v>88.42312952732136</v>
       </c>
       <c r="H16">
-        <v>11.4087915285023</v>
+        <v>8.896497456660486</v>
       </c>
       <c r="I16">
-        <v>18.17573335817383</v>
+        <v>2.708061172222708</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>22.03728787160131</v>
       </c>
       <c r="K16">
-        <v>18.06303961000079</v>
+        <v>86.63673253819296</v>
       </c>
       <c r="L16">
-        <v>8.787820867578777</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1120,43 +1210,49 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.62907502361342</v>
+        <v>28.85101104749141</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.311187264034206</v>
+        <v>5.109189466770676</v>
       </c>
       <c r="E17">
-        <v>9.24594602674771</v>
+        <v>22.45541140478545</v>
       </c>
       <c r="F17">
-        <v>26.83594314303305</v>
+        <v>55.28684118744286</v>
       </c>
       <c r="G17">
-        <v>37.7467014018561</v>
+        <v>88.25438181639947</v>
       </c>
       <c r="H17">
-        <v>11.34439161423575</v>
+        <v>8.307612045752009</v>
       </c>
       <c r="I17">
-        <v>18.21354385066752</v>
+        <v>2.623905086322437</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>21.9996437851712</v>
       </c>
       <c r="K17">
-        <v>17.72075788150016</v>
+        <v>84.9163859910048</v>
       </c>
       <c r="L17">
-        <v>8.605049901116333</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1167,43 +1263,49 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.4757206460716</v>
+        <v>28.49337206267156</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.307864410205651</v>
+        <v>5.527040849934422</v>
       </c>
       <c r="E18">
-        <v>9.258057741987267</v>
+        <v>26.07687480006288</v>
       </c>
       <c r="F18">
-        <v>26.61829317092886</v>
+        <v>56.65772119368311</v>
       </c>
       <c r="G18">
-        <v>37.40991027081211</v>
+        <v>90.73825323589439</v>
       </c>
       <c r="H18">
-        <v>11.30836722348803</v>
+        <v>7.599918147991803</v>
       </c>
       <c r="I18">
-        <v>18.23703451091221</v>
+        <v>2.567073126085647</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>22.62424030842327</v>
       </c>
       <c r="K18">
-        <v>17.52131638645984</v>
+        <v>83.74900462306383</v>
       </c>
       <c r="L18">
-        <v>8.498511625749209</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1214,43 +1316,49 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.42350160676699</v>
+        <v>28.37226976796867</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.306737815623357</v>
+        <v>6.14911835907705</v>
       </c>
       <c r="E19">
-        <v>9.262202527916742</v>
+        <v>31.7252184553382</v>
       </c>
       <c r="F19">
-        <v>26.54474194564141</v>
+        <v>59.20209224900196</v>
       </c>
       <c r="G19">
-        <v>37.29606815480479</v>
+        <v>95.18645542896974</v>
       </c>
       <c r="H19">
-        <v>11.29634280608555</v>
+        <v>7.137263559703097</v>
       </c>
       <c r="I19">
-        <v>18.24528142692597</v>
+        <v>2.554485117098911</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>23.73804171136064</v>
       </c>
       <c r="K19">
-        <v>17.45334649904732</v>
+        <v>83.47852690970737</v>
       </c>
       <c r="L19">
-        <v>8.462195738104365</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1261,43 +1369,49 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.65731661829725</v>
+        <v>28.91642397048738</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.311801514329925</v>
+        <v>7.28745722148825</v>
       </c>
       <c r="E20">
-        <v>9.243725407428048</v>
+        <v>41.88465695924361</v>
       </c>
       <c r="F20">
-        <v>26.87629157476977</v>
+        <v>64.84437365440336</v>
       </c>
       <c r="G20">
-        <v>37.80912270714994</v>
+        <v>104.8008338007382</v>
       </c>
       <c r="H20">
-        <v>11.35114143862918</v>
+        <v>7.52801998468312</v>
       </c>
       <c r="I20">
-        <v>18.20933702577587</v>
+        <v>2.632150952014034</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>26.13838922143155</v>
       </c>
       <c r="K20">
-        <v>17.75746010268472</v>
+        <v>85.08804631142128</v>
       </c>
       <c r="L20">
-        <v>8.624652176736108</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1308,43 +1422,49 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.4221551105263</v>
+        <v>30.67759681485692</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.328704260768075</v>
+        <v>7.884230574686487</v>
       </c>
       <c r="E21">
-        <v>9.184768215000794</v>
+        <v>45.54060368039519</v>
       </c>
       <c r="F21">
-        <v>27.99963012959152</v>
+        <v>69.85369612854261</v>
       </c>
       <c r="G21">
-        <v>39.54543756549305</v>
+        <v>112.9401768068385</v>
       </c>
       <c r="H21">
-        <v>11.54753794449894</v>
+        <v>8.266973249648826</v>
       </c>
       <c r="I21">
-        <v>18.10984965892124</v>
+        <v>2.887686022020178</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>28.16368779326235</v>
       </c>
       <c r="K21">
-        <v>18.74861958271771</v>
+        <v>90.18568523955366</v>
       </c>
       <c r="L21">
-        <v>9.153685776247583</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1355,43 +1475,49 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.90641468451089</v>
+        <v>31.77799867576348</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.339664842205132</v>
+        <v>8.222160693100195</v>
       </c>
       <c r="E22">
-        <v>9.148646664613073</v>
+        <v>47.45403990652109</v>
       </c>
       <c r="F22">
-        <v>28.74034424164895</v>
+        <v>72.87890364272413</v>
       </c>
       <c r="G22">
-        <v>40.68893035492755</v>
+        <v>117.8337718053129</v>
       </c>
       <c r="H22">
-        <v>11.68535031202426</v>
+        <v>8.723261462992223</v>
       </c>
       <c r="I22">
-        <v>18.06175346743452</v>
+        <v>3.046085171047942</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>29.38129389973123</v>
       </c>
       <c r="K22">
-        <v>19.37379913916243</v>
+        <v>93.18425791350992</v>
       </c>
       <c r="L22">
-        <v>9.487127735635191</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1402,43 +1528,49 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.64939078828224</v>
+        <v>31.19327424365966</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.333823086188627</v>
+        <v>8.04209886118797</v>
       </c>
       <c r="E23">
-        <v>9.167699211454755</v>
+        <v>46.43369434401661</v>
       </c>
       <c r="F23">
-        <v>28.34443525223727</v>
+        <v>71.26742299622421</v>
       </c>
       <c r="G23">
-        <v>40.07786062541641</v>
+        <v>115.2270457018877</v>
       </c>
       <c r="H23">
-        <v>11.61091255641807</v>
+        <v>8.478834447312645</v>
       </c>
       <c r="I23">
-        <v>18.08580432236175</v>
+        <v>2.951330104130923</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>28.73267227164462</v>
       </c>
       <c r="K23">
-        <v>19.04218078595419</v>
+        <v>91.38712135191045</v>
       </c>
       <c r="L23">
-        <v>9.310276052511426</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1449,43 +1581,49 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.64455419327909</v>
+        <v>28.88424622251241</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.311523844705837</v>
+        <v>7.351963158809076</v>
       </c>
       <c r="E24">
-        <v>9.244728528538323</v>
+        <v>42.53983267453557</v>
       </c>
       <c r="F24">
-        <v>26.85804784704244</v>
+        <v>65.08165107603023</v>
       </c>
       <c r="G24">
-        <v>37.78089915248991</v>
+        <v>105.2204911296198</v>
       </c>
       <c r="H24">
-        <v>11.34808673277211</v>
+        <v>7.569410435850418</v>
       </c>
       <c r="I24">
-        <v>18.21123348663781</v>
+        <v>2.611260814615989</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>26.24336733139408</v>
       </c>
       <c r="K24">
-        <v>17.7408753140625</v>
+        <v>84.66516338006249</v>
       </c>
       <c r="L24">
-        <v>8.615794540952241</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1496,43 +1634,49 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.49481832965825</v>
+        <v>26.18238885005463</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.287127913608433</v>
+        <v>6.61376772295187</v>
       </c>
       <c r="E25">
-        <v>9.337655966505839</v>
+        <v>38.22364494355048</v>
       </c>
       <c r="F25">
-        <v>25.28607227407752</v>
+        <v>58.15849821238061</v>
       </c>
       <c r="G25">
-        <v>35.3453268020809</v>
+        <v>94.01931198240624</v>
       </c>
       <c r="H25">
-        <v>11.10321071225271</v>
+        <v>6.604858635137548</v>
       </c>
       <c r="I25">
-        <v>18.41245394656372</v>
+        <v>2.742911760466803</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>23.45828026469975</v>
       </c>
       <c r="K25">
-        <v>16.23889503478802</v>
+        <v>76.87445421874085</v>
       </c>
       <c r="L25">
-        <v>7.812526493083305</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,6 +1685,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.03951969628698</v>
+        <v>24.04110093463252</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.062977300543665</v>
+        <v>6.083297528275676</v>
       </c>
       <c r="E2">
-        <v>34.90486714003239</v>
+        <v>34.27179585943531</v>
       </c>
       <c r="F2">
-        <v>52.78707250553389</v>
+        <v>52.31292006521044</v>
       </c>
       <c r="G2">
-        <v>85.32644986344235</v>
+        <v>85.08958966335557</v>
       </c>
       <c r="H2">
-        <v>5.89440273973625</v>
+        <v>5.637518097390483</v>
       </c>
       <c r="I2">
-        <v>3.005390845382252</v>
+        <v>3.102319254819514</v>
       </c>
       <c r="J2">
-        <v>21.29825782567971</v>
+        <v>21.42798962771704</v>
       </c>
       <c r="K2">
-        <v>70.04831980844875</v>
+        <v>40.2691443333559</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>29.59801017355551</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>30.71468139066206</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -474,46 +480,52 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.4710358935919</v>
+        <v>22.47195615808967</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.67262198742571</v>
+        <v>5.706081985165486</v>
       </c>
       <c r="E3">
-        <v>32.55253779777064</v>
+        <v>31.98495255715811</v>
       </c>
       <c r="F3">
-        <v>48.95375306580581</v>
+        <v>48.57825503906847</v>
       </c>
       <c r="G3">
-        <v>79.12098551423178</v>
+        <v>78.90470334820698</v>
       </c>
       <c r="H3">
-        <v>5.407222168350232</v>
+        <v>5.176994727017895</v>
       </c>
       <c r="I3">
-        <v>3.192510874708797</v>
+        <v>3.215684869259289</v>
       </c>
       <c r="J3">
-        <v>19.75730384935114</v>
+        <v>20.12511686640923</v>
       </c>
       <c r="K3">
-        <v>65.44940052185447</v>
+        <v>37.68607595734165</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>27.3188088038206</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>29.06880179346225</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -527,46 +539,52 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.44996014040529</v>
+        <v>21.44831036159349</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.424096896763909</v>
+        <v>5.46495660064889</v>
       </c>
       <c r="E4">
-        <v>31.05334773865635</v>
+        <v>30.52411908037974</v>
       </c>
       <c r="F4">
-        <v>46.49900485598059</v>
+        <v>46.19980386530336</v>
       </c>
       <c r="G4">
-        <v>75.14615012813191</v>
+        <v>74.93962797274138</v>
       </c>
       <c r="H4">
-        <v>5.103781497569486</v>
+        <v>4.889476726240217</v>
       </c>
       <c r="I4">
-        <v>3.308238040789103</v>
+        <v>3.286613502937308</v>
       </c>
       <c r="J4">
-        <v>18.83997953883836</v>
+        <v>19.2925014478163</v>
       </c>
       <c r="K4">
-        <v>62.55294165479126</v>
+        <v>36.033805539555</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>25.85993366964762</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>28.01808332727089</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -580,46 +598,52 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.01912480060329</v>
+        <v>21.01595753288547</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.320555927933452</v>
+        <v>5.364287666089275</v>
       </c>
       <c r="E5">
-        <v>30.42813651467054</v>
+        <v>29.91417401989336</v>
       </c>
       <c r="F5">
-        <v>45.47252714163682</v>
+        <v>45.23202472818034</v>
       </c>
       <c r="G5">
-        <v>73.48374896182813</v>
+        <v>73.28059989513642</v>
       </c>
       <c r="H5">
-        <v>4.978848370806226</v>
+        <v>4.770953319488456</v>
       </c>
       <c r="I5">
-        <v>3.357057364133015</v>
+        <v>3.31844443051172</v>
       </c>
       <c r="J5">
-        <v>18.47330760658275</v>
+        <v>18.94502990992548</v>
       </c>
       <c r="K5">
-        <v>61.41579519922226</v>
+        <v>35.38695166432465</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>25.28252613136998</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>27.61265428388701</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -633,46 +657,52 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.94660719316659</v>
+        <v>20.94323187709642</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.303225409428647</v>
+        <v>5.347426036829738</v>
       </c>
       <c r="E6">
-        <v>30.32344564102851</v>
+        <v>29.81199873477598</v>
       </c>
       <c r="F6">
-        <v>45.30048279507524</v>
+        <v>45.06985138071074</v>
       </c>
       <c r="G6">
-        <v>73.20510186009429</v>
+        <v>73.00247938235044</v>
       </c>
       <c r="H6">
-        <v>4.958020807786976</v>
+        <v>4.751186188500694</v>
       </c>
       <c r="I6">
-        <v>3.367086934272861</v>
+        <v>3.327116966868334</v>
       </c>
       <c r="J6">
-        <v>18.41197309688292</v>
+        <v>18.88684103009952</v>
       </c>
       <c r="K6">
-        <v>61.31282198545125</v>
+        <v>35.33068066718543</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>25.22414545557983</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>27.58466879086356</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -686,46 +716,52 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.44400016915308</v>
+        <v>21.4425042911094</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.422709717770315</v>
+        <v>5.450496631150734</v>
       </c>
       <c r="E7">
-        <v>31.04497431879031</v>
+        <v>30.5126949843161</v>
       </c>
       <c r="F7">
-        <v>46.48526817627108</v>
+        <v>46.13279001991585</v>
       </c>
       <c r="G7">
-        <v>75.12390447095395</v>
+        <v>74.96758084833458</v>
       </c>
       <c r="H7">
-        <v>5.102102024577611</v>
+        <v>4.886547684377157</v>
       </c>
       <c r="I7">
-        <v>3.313786387276969</v>
+        <v>3.295833493059101</v>
       </c>
       <c r="J7">
-        <v>18.83506455751946</v>
+        <v>19.19172262871884</v>
       </c>
       <c r="K7">
-        <v>62.77205030764404</v>
+        <v>36.16451624352388</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>25.95491388301225</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>28.11935055606654</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -739,46 +775,52 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.5106048262064</v>
+        <v>23.51248066458468</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.930188023630573</v>
+        <v>5.914594368154032</v>
       </c>
       <c r="E8">
-        <v>34.10484770371732</v>
+        <v>33.48442549459901</v>
       </c>
       <c r="F8">
-        <v>51.48584467205289</v>
+        <v>50.88087272128464</v>
       </c>
       <c r="G8">
-        <v>83.2201883949531</v>
+        <v>83.14268729588152</v>
       </c>
       <c r="H8">
-        <v>5.727192860371525</v>
+        <v>5.475342523618738</v>
       </c>
       <c r="I8">
-        <v>3.075717945874169</v>
+        <v>3.152079809021596</v>
       </c>
       <c r="J8">
-        <v>20.77512148296438</v>
+        <v>20.68775817724923</v>
       </c>
       <c r="K8">
-        <v>68.78359402129654</v>
+        <v>39.56450643602796</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>28.95204751095709</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>30.28690385352522</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -792,46 +834,52 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.11809087932017</v>
+        <v>27.09717337379034</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.858093798537354</v>
+        <v>6.799019967846628</v>
       </c>
       <c r="E9">
-        <v>39.69706429092414</v>
+        <v>38.89496966423223</v>
       </c>
       <c r="F9">
-        <v>60.52974087017593</v>
+        <v>59.63070805582458</v>
       </c>
       <c r="G9">
-        <v>97.85611462207902</v>
+        <v>97.71858251709457</v>
       </c>
       <c r="H9">
-        <v>6.928971548006138</v>
+        <v>6.605344691255957</v>
       </c>
       <c r="I9">
-        <v>2.607337829566317</v>
+        <v>2.866600236733083</v>
       </c>
       <c r="J9">
-        <v>24.41207428071468</v>
+        <v>23.71789007297949</v>
       </c>
       <c r="K9">
-        <v>79.22058890757523</v>
+        <v>45.46289011891675</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>34.16781471431409</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>34.04057586572387</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -845,46 +893,52 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.52590840198575</v>
+        <v>29.44576208428608</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.448061899969691</v>
+        <v>7.258312881367248</v>
       </c>
       <c r="E10">
-        <v>42.71195693367495</v>
+        <v>41.73921839193759</v>
       </c>
       <c r="F10">
-        <v>66.37627525066524</v>
+        <v>64.99748589629164</v>
       </c>
       <c r="G10">
-        <v>107.2695417812145</v>
+        <v>107.2733549428349</v>
       </c>
       <c r="H10">
-        <v>7.746997667664147</v>
+        <v>7.360607408301691</v>
       </c>
       <c r="I10">
-        <v>2.694300863279475</v>
+        <v>2.668270858387158</v>
       </c>
       <c r="J10">
-        <v>26.75227078801586</v>
+        <v>25.23026454415925</v>
       </c>
       <c r="K10">
-        <v>86.33114078562357</v>
+        <v>49.50431524872977</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>37.71882263528232</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>36.63706263650964</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -898,46 +952,52 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.56501963939838</v>
+        <v>30.45336529123507</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.92720321958501</v>
+        <v>6.594599258052064</v>
       </c>
       <c r="E11">
-        <v>36.62446685192158</v>
+        <v>35.54916741245472</v>
       </c>
       <c r="F11">
-        <v>65.54910715248732</v>
+        <v>63.64809700066583</v>
       </c>
       <c r="G11">
-        <v>105.5258100307507</v>
+        <v>106.022920485563</v>
       </c>
       <c r="H11">
-        <v>7.855890534706781</v>
+        <v>7.47239009743587</v>
       </c>
       <c r="I11">
-        <v>2.863409948912029</v>
+        <v>2.595889036013928</v>
       </c>
       <c r="J11">
-        <v>26.31125789452344</v>
+        <v>23.81832667524809</v>
       </c>
       <c r="K11">
-        <v>89.71136125585001</v>
+        <v>51.43308922396648</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>39.38621871487985</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>37.90132034154973</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -951,46 +1011,52 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.94890444533599</v>
+        <v>30.82617262337245</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.371356698741702</v>
+        <v>5.972387949577724</v>
       </c>
       <c r="E12">
-        <v>31.18394436293255</v>
+        <v>30.04177799508253</v>
       </c>
       <c r="F12">
-        <v>63.65770087865032</v>
+        <v>61.55715690242302</v>
       </c>
       <c r="G12">
-        <v>102.134242655914</v>
+        <v>102.8994577826992</v>
       </c>
       <c r="H12">
-        <v>8.197726582175731</v>
+        <v>7.848518372205959</v>
       </c>
       <c r="I12">
-        <v>2.920602483785751</v>
+        <v>2.560507606004848</v>
       </c>
       <c r="J12">
-        <v>25.46073144774734</v>
+        <v>22.54778405698381</v>
       </c>
       <c r="K12">
-        <v>90.81436820082371</v>
+        <v>52.05887539346564</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>39.93783024669911</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>38.30246864933386</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1004,46 +1070,52 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.86632728123276</v>
+        <v>30.7462518025294</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.743963296425758</v>
+        <v>5.35472380478422</v>
       </c>
       <c r="E13">
-        <v>25.94507411239645</v>
+        <v>24.76255447732626</v>
       </c>
       <c r="F13">
-        <v>60.79170388468768</v>
+        <v>58.81738111169812</v>
       </c>
       <c r="G13">
-        <v>97.19376870763044</v>
+        <v>97.98072423221058</v>
       </c>
       <c r="H13">
-        <v>8.70838568394006</v>
+        <v>8.41194225235229</v>
       </c>
       <c r="I13">
-        <v>2.90678073180813</v>
+        <v>2.566314080210653</v>
       </c>
       <c r="J13">
-        <v>24.2245000735063</v>
+        <v>21.46603725347436</v>
       </c>
       <c r="K13">
-        <v>90.54689708968301</v>
+        <v>51.90638383812409</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>39.80598852421826</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>38.20247448402373</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1057,46 +1129,52 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.5966553101952</v>
+        <v>30.48420395699833</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.269943871679226</v>
+        <v>4.916718159493329</v>
       </c>
       <c r="E14">
-        <v>22.56355132598437</v>
+        <v>21.36515997048846</v>
       </c>
       <c r="F14">
-        <v>58.32355910182123</v>
+        <v>56.57701034811507</v>
       </c>
       <c r="G14">
-        <v>92.99711155019756</v>
+        <v>93.68657516000556</v>
       </c>
       <c r="H14">
-        <v>9.17135373369117</v>
+        <v>8.915363127298104</v>
       </c>
       <c r="I14">
-        <v>2.867465423457678</v>
+        <v>2.592203109730382</v>
       </c>
       <c r="J14">
-        <v>23.17504405299849</v>
+        <v>20.81700438145735</v>
       </c>
       <c r="K14">
-        <v>89.78932321383637</v>
+        <v>51.47700044073479</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>39.42602775868274</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>37.92850866834472</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1110,46 +1188,52 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.43091025861329</v>
+        <v>30.32258936035075</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.136505107212911</v>
+        <v>4.807831886303154</v>
       </c>
       <c r="E15">
-        <v>21.74756220727798</v>
+        <v>20.55668334861668</v>
       </c>
       <c r="F15">
-        <v>57.50363434847095</v>
+        <v>55.87480346715557</v>
       </c>
       <c r="G15">
-        <v>91.62568992545424</v>
+        <v>92.24313045109903</v>
       </c>
       <c r="H15">
-        <v>9.269499742469216</v>
+        <v>9.025304063352101</v>
       </c>
       <c r="I15">
-        <v>2.846492030909892</v>
+        <v>2.611731864001089</v>
       </c>
       <c r="J15">
-        <v>22.83256660581976</v>
+        <v>20.68934215158397</v>
       </c>
       <c r="K15">
-        <v>89.38425024055321</v>
+        <v>51.24893749524605</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>39.21892399607099</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>37.78760772508436</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1163,46 +1247,52 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.4610230762265</v>
+        <v>29.37887625672972</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.974303253536829</v>
+        <v>4.795418008801756</v>
       </c>
       <c r="E16">
-        <v>21.15317517840069</v>
+        <v>20.06665307312456</v>
       </c>
       <c r="F16">
-        <v>55.4890165624166</v>
+        <v>54.39301287142288</v>
       </c>
       <c r="G16">
-        <v>88.42312952732136</v>
+        <v>88.64142668482155</v>
       </c>
       <c r="H16">
-        <v>8.896497456660486</v>
+        <v>8.674075402928153</v>
       </c>
       <c r="I16">
-        <v>2.708061172222708</v>
+        <v>2.701333241525414</v>
       </c>
       <c r="J16">
-        <v>22.03728787160131</v>
+        <v>20.89376496379109</v>
       </c>
       <c r="K16">
-        <v>86.63673253819296</v>
+        <v>49.69031687981182</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>37.84102141623062</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>36.79252319122155</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1216,46 +1306,52 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.85101104749141</v>
+        <v>28.78437360282655</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.109189466770676</v>
+        <v>5.013028655438429</v>
       </c>
       <c r="E17">
-        <v>22.45541140478545</v>
+        <v>21.45153009741399</v>
       </c>
       <c r="F17">
-        <v>55.28684118744286</v>
+        <v>54.41971215228987</v>
       </c>
       <c r="G17">
-        <v>88.25438181639947</v>
+        <v>88.27632971846305</v>
       </c>
       <c r="H17">
-        <v>8.307612045752009</v>
+        <v>8.080884980878633</v>
       </c>
       <c r="I17">
-        <v>2.623905086322437</v>
+        <v>2.756828564372523</v>
       </c>
       <c r="J17">
-        <v>21.9996437851712</v>
+        <v>21.29522038102615</v>
       </c>
       <c r="K17">
-        <v>84.9163859910048</v>
+        <v>48.71433131431513</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>36.97713587435684</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>36.17066460407919</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1269,46 +1365,52 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.49337206267156</v>
+        <v>28.43664851506485</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.527040849934422</v>
+        <v>5.476740732282058</v>
       </c>
       <c r="E18">
-        <v>26.07687480006288</v>
+        <v>25.15036349789799</v>
       </c>
       <c r="F18">
-        <v>56.65772119368311</v>
+        <v>55.86629734602722</v>
       </c>
       <c r="G18">
-        <v>90.73825323589439</v>
+        <v>90.6455796607582</v>
       </c>
       <c r="H18">
-        <v>7.599918147991803</v>
+        <v>7.345736746082916</v>
       </c>
       <c r="I18">
-        <v>2.567073126085647</v>
+        <v>2.779361745601739</v>
       </c>
       <c r="J18">
-        <v>22.62424030842327</v>
+        <v>22.07672333112859</v>
       </c>
       <c r="K18">
-        <v>83.74900462306383</v>
+        <v>48.04792798025649</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>36.40092411624587</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>35.73429275315288</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1322,46 +1424,52 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.37226976796867</v>
+        <v>28.31795854695858</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.14911835907705</v>
+        <v>6.109339104574036</v>
       </c>
       <c r="E19">
-        <v>31.7252184553382</v>
+        <v>30.84793599308765</v>
       </c>
       <c r="F19">
-        <v>59.20209224900196</v>
+        <v>58.38811881461123</v>
       </c>
       <c r="G19">
-        <v>95.18645542896974</v>
+        <v>95.01981372157488</v>
       </c>
       <c r="H19">
-        <v>7.137263559703097</v>
+        <v>6.840418426412464</v>
       </c>
       <c r="I19">
-        <v>2.554485117098911</v>
+        <v>2.794314869528576</v>
       </c>
       <c r="J19">
-        <v>23.73804171136064</v>
+        <v>23.16783283456918</v>
       </c>
       <c r="K19">
-        <v>83.47852690970737</v>
+        <v>47.89632765149296</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>36.26050279707646</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>35.64318194640032</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1375,46 +1483,52 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.91642397048738</v>
+        <v>28.84824954763216</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.28745722148825</v>
+        <v>7.172480073194635</v>
       </c>
       <c r="E20">
-        <v>41.88465695924361</v>
+        <v>40.96947181839533</v>
       </c>
       <c r="F20">
-        <v>64.84437365440336</v>
+        <v>63.74189846297632</v>
       </c>
       <c r="G20">
-        <v>104.8008338007382</v>
+        <v>104.6425239399227</v>
       </c>
       <c r="H20">
-        <v>7.52801998468312</v>
+        <v>7.163152416712983</v>
       </c>
       <c r="I20">
-        <v>2.632150952014034</v>
+        <v>2.750135631473642</v>
       </c>
       <c r="J20">
-        <v>26.13838922143155</v>
+        <v>25.08237724661892</v>
       </c>
       <c r="K20">
-        <v>85.08804631142128</v>
+        <v>48.81138851086876</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>37.06417201242891</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>36.23151283703384</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1428,46 +1542,52 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.67759681485692</v>
+        <v>30.56149401689693</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.884230574686487</v>
+        <v>7.464082645393185</v>
       </c>
       <c r="E21">
-        <v>45.54060368039519</v>
+        <v>44.42326008333767</v>
       </c>
       <c r="F21">
-        <v>69.85369612854261</v>
+        <v>67.59844255102755</v>
       </c>
       <c r="G21">
-        <v>112.9401768068385</v>
+        <v>113.5051529393391</v>
       </c>
       <c r="H21">
-        <v>8.266973249648826</v>
+        <v>7.822539592192217</v>
       </c>
       <c r="I21">
-        <v>2.887686022020178</v>
+        <v>2.595060600504258</v>
       </c>
       <c r="J21">
-        <v>28.16368779326235</v>
+        <v>25.16871649658307</v>
       </c>
       <c r="K21">
-        <v>90.18568523955366</v>
+        <v>51.70602866140376</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>39.61402082554041</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>38.08735987819362</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1481,46 +1601,52 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.77799867576348</v>
+        <v>31.63042662556872</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.222160693100195</v>
+        <v>7.595885503124392</v>
       </c>
       <c r="E22">
-        <v>47.45403990652109</v>
+        <v>46.19353639693899</v>
       </c>
       <c r="F22">
-        <v>72.87890364272413</v>
+        <v>69.83936823472608</v>
       </c>
       <c r="G22">
-        <v>117.8337718053129</v>
+        <v>118.8708826442004</v>
       </c>
       <c r="H22">
-        <v>8.723261462992223</v>
+        <v>8.224733697391324</v>
       </c>
       <c r="I22">
-        <v>3.046085171047942</v>
+        <v>2.53790486349659</v>
       </c>
       <c r="J22">
-        <v>29.38129389973123</v>
+        <v>25.08084472256347</v>
       </c>
       <c r="K22">
-        <v>93.18425791350992</v>
+        <v>53.4022848093007</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>41.12257178706455</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>39.19182060407398</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1534,46 +1660,52 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.19327424365966</v>
+        <v>31.0644202503292</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.04209886118797</v>
+        <v>7.551607940850142</v>
       </c>
       <c r="E23">
-        <v>46.43369434401661</v>
+        <v>45.25783228910059</v>
       </c>
       <c r="F23">
-        <v>71.26742299622421</v>
+        <v>68.74874561755674</v>
       </c>
       <c r="G23">
-        <v>115.2270457018877</v>
+        <v>115.9270909595632</v>
       </c>
       <c r="H23">
-        <v>8.478834447312645</v>
+        <v>8.012382631917635</v>
       </c>
       <c r="I23">
-        <v>2.951330104130923</v>
+        <v>2.530020984283541</v>
       </c>
       <c r="J23">
-        <v>28.73267227164462</v>
+        <v>25.31536344122027</v>
       </c>
       <c r="K23">
-        <v>91.38712135191045</v>
+        <v>52.38047194729588</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>40.23222066100623</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>38.50354430454688</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1587,46 +1719,52 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.88424622251241</v>
+        <v>28.81929208043877</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.351963158809076</v>
+        <v>7.237428413817766</v>
       </c>
       <c r="E24">
-        <v>42.53983267453557</v>
+        <v>41.62525011577031</v>
       </c>
       <c r="F24">
-        <v>65.08165107603023</v>
+        <v>63.98165738196596</v>
       </c>
       <c r="G24">
-        <v>105.2204911296198</v>
+        <v>105.0487188186877</v>
       </c>
       <c r="H24">
-        <v>7.569410435850418</v>
+        <v>7.20281578453092</v>
       </c>
       <c r="I24">
-        <v>2.611260814615989</v>
+        <v>2.733997186527745</v>
       </c>
       <c r="J24">
-        <v>26.24336733139408</v>
+        <v>25.19520535188165</v>
       </c>
       <c r="K24">
-        <v>84.66516338006249</v>
+        <v>48.5628639089579</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>36.87302669105422</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>36.04806680493459</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1640,46 +1778,52 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.18238885005463</v>
+        <v>26.17781287942766</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.61376772295187</v>
+        <v>6.583337442968761</v>
       </c>
       <c r="E25">
-        <v>38.22364494355048</v>
+        <v>37.47812739845281</v>
       </c>
       <c r="F25">
-        <v>58.15849821238061</v>
+        <v>57.40870636940022</v>
       </c>
       <c r="G25">
-        <v>94.01931198240624</v>
+        <v>93.84464473395387</v>
       </c>
       <c r="H25">
-        <v>6.604858635137548</v>
+        <v>6.303298281715083</v>
       </c>
       <c r="I25">
-        <v>2.742911760466803</v>
+        <v>2.958682043903359</v>
       </c>
       <c r="J25">
-        <v>23.45828026469975</v>
+        <v>23.04229033651315</v>
       </c>
       <c r="K25">
-        <v>76.87445421874085</v>
+        <v>44.14167653325606</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>32.97116878506854</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>33.22389382932779</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
